--- a/input_data/Requirements_Data_edited _view.xlsx
+++ b/input_data/Requirements_Data_edited _view.xlsx
@@ -8014,7 +8014,7 @@
   <dimension ref="A1:H881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8072,10 +8072,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="18">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -8206,10 +8206,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
@@ -8229,10 +8229,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
